--- a/Данные для проверки теплофикации на режимах.xlsx
+++ b/Данные для проверки теплофикации на режимах.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Employee3\Documents\GitHub\GZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7198D-0FF3-416D-AF82-0FACA4CD22B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF15705A-8C79-4DA7-B8E1-D0FBC0510620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>Пар в отборе 2:</t>
   </si>
@@ -184,19 +184,27 @@
   </si>
   <si>
     <t>OTB1-SP1</t>
+  </si>
+  <si>
+    <t>113.59362065560336</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,12 +227,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,17 +531,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F46D57-895F-4ADE-87F4-F285EE07A103}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19">
       <c r="D1" s="1">
         <v>0.5</v>
       </c>
@@ -538,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19">
       <c r="C2">
         <v>-40</v>
       </c>
@@ -591,7 +602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>13</v>
       </c>
@@ -599,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -655,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -711,7 +722,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -767,7 +778,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>14</v>
       </c>
@@ -775,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -831,7 +842,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -887,7 +898,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -943,7 +954,7 @@
         <v>81.73</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -999,7 +1010,7 @@
         <v>833.3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1055,7 +1066,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1122,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1167,7 +1178,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1223,7 +1234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>37</v>
       </c>
@@ -1282,7 +1293,7 @@
         <v>102.67</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>38</v>
       </c>
@@ -1397,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1453,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>39</v>
       </c>
@@ -1512,7 +1523,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1568,22 +1579,22 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19">
       <c r="C23">
         <f>C31-C10</f>
         <v>-4.456596037218219E-2</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:S23" si="0">D31-D10</f>
-        <v>3.6677426674700087E-2</v>
+        <v>3.6677426674415869E-2</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>9.6953343566781314E-3</v>
+        <v>9.6953343571328787E-3</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>2.4037222135532943E-2</v>
+        <v>2.4037222135703473E-2</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
@@ -1638,7 +1649,7 @@
         <v>3.189778003651611E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1714,7 +1725,7 @@
         <v>815.8</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1790,7 +1801,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1942,7 +1953,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2018,7 +2029,7 @@
         <v>2710.2420153440662</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2094,7 +2105,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2107,15 +2118,15 @@
       </c>
       <c r="D31">
         <f>[1]!PropsSI("T","Q",0,"P",D9*10^6,"Water")-273.15</f>
-        <v>98.236677426674703</v>
+        <v>98.236677426674419</v>
       </c>
       <c r="E31">
         <f>[1]!PropsSI("T","Q",0,"P",E9*10^6,"Water")-273.15</f>
-        <v>78.109695334356672</v>
+        <v>78.109695334357127</v>
       </c>
       <c r="F31">
         <f>[1]!PropsSI("T","Q",0,"P",F9*10^6,"Water")-273.15</f>
-        <v>69.32403722213553</v>
+        <v>69.324037222135701</v>
       </c>
       <c r="G31">
         <f>[1]!PropsSI("T","Q",0,"P",G9*10^6,"Water")-273.15</f>
@@ -2170,7 +2181,7 @@
         <v>81.76189778003652</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2183,15 +2194,15 @@
       </c>
       <c r="D32">
         <f>[1]!PropsSI("H","Q",1,"P",D9*10^6,"Water")/1000</f>
-        <v>2672.7791885906677</v>
+        <v>2672.7791885906672</v>
       </c>
       <c r="E32">
         <f>[1]!PropsSI("H","Q",1,"P",E9*10^6,"Water")/1000</f>
-        <v>2639.8466521571922</v>
+        <v>2639.8466521571941</v>
       </c>
       <c r="F32">
         <f>[1]!PropsSI("H","Q",1,"P",F9*10^6,"Water")/1000</f>
-        <v>2624.9396880914787</v>
+        <v>2624.9396880914796</v>
       </c>
       <c r="G32">
         <f>[1]!PropsSI("H","Q",1,"P",G9*10^6,"Water")/1000</f>
@@ -2246,7 +2257,7 @@
         <v>2645.9568094246006</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:19">
       <c r="B34" t="s">
         <v>39</v>
       </c>
@@ -2319,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19">
       <c r="B35" t="s">
         <v>40</v>
       </c>
@@ -2392,7 +2403,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19">
       <c r="B36" t="s">
         <v>43</v>
       </c>
@@ -2478,13 +2489,13 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="35.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23">
       <c r="D1" s="1">
         <v>0.5</v>
       </c>
@@ -2492,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23">
       <c r="C2">
         <v>-40</v>
       </c>
@@ -2545,7 +2556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>13</v>
       </c>
@@ -2559,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2677,7 +2688,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +2747,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>14</v>
       </c>
@@ -2750,7 +2761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -2809,7 +2820,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -2868,7 +2879,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2938,7 @@
         <v>81.73</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>15</v>
       </c>
@@ -2941,7 +2952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -3000,7 +3011,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -3059,7 +3070,7 @@
         <v>80.58</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -3118,7 +3129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -3177,7 +3188,7 @@
         <v>833.3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -3236,7 +3247,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -3295,7 +3306,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -3354,7 +3365,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -3413,7 +3424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>37</v>
       </c>
@@ -3478,7 +3489,7 @@
         <v>102.67</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -3537,7 +3548,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>38</v>
       </c>
@@ -3602,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -3661,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>39</v>
       </c>
@@ -3726,7 +3737,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23">
       <c r="B25" t="s">
         <v>16</v>
       </c>
@@ -3788,4 +3799,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0167F3E-7BBE-4E10-9277-F2F26A5DBFC2}">
+  <dimension ref="B3:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2">
+        <v>108.1630088858</v>
+      </c>
+      <c r="F3" s="2">
+        <v>35.402046464447999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>112.27951314000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>106.86701876402</v>
+      </c>
+      <c r="F4" s="2">
+        <v>34.106056587573498</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <f>B3-B4</f>
+        <v>1.3141075156029984</v>
+      </c>
+      <c r="D5">
+        <f>D3-D4</f>
+        <v>1.2959901217799938</v>
+      </c>
+      <c r="F5">
+        <f>F3-F4</f>
+        <v>1.2959898768745006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="F7">
+        <f>F5/F4*100</f>
+        <v>3.7998819170044218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>112.29741560779</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>112.27951314000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <f>B10-B11</f>
+        <v>1.7902467789994603E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <f>B12/B10*100</f>
+        <v>1.5942012283275308E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Данные для проверки теплофикации на режимах.xlsx
+++ b/Данные для проверки теплофикации на режимах.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF15705A-8C79-4DA7-B8E1-D0FBC0510620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB1DF7-53D1-40E7-80D8-33939B9D6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -531,8 +531,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F46D57-895F-4ADE-87F4-F285EE07A103}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1985,8 +1988,8 @@
         <v>2737.7318623277183</v>
       </c>
       <c r="I29">
-        <f>[1]!PropsSI("H","T",I6+273.15,"P",I5*10^6,"Water")/1000</f>
-        <v>514.86281788107647</v>
+        <f>[1]!PropsSI("H","Q",1,"P",I5*10^6,"Water")/1000</f>
+        <v>2709.8279245900358</v>
       </c>
       <c r="J29">
         <f>[1]!PropsSI("H","T",J6+273.15,"P",J5*10^6,"Water")/1000</f>
@@ -3805,7 +3808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0167F3E-7BBE-4E10-9277-F2F26A5DBFC2}">
   <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
